--- a/Data/robustness-analysis.xlsx
+++ b/Data/robustness-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annel\Documents\Locating-APLs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9348990-6203-4746-AF16-CFCC27BE9CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33088EA9-E6AE-493C-B530-DD2FCCAADDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BB1C52BF-C5D3-4F86-A824-41C71A320735}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Heuristik</t>
   </si>
@@ -83,9 +83,6 @@
     <t>1700m</t>
   </si>
   <si>
-    <t>5500 * (1.02) ** (t - 1)</t>
-  </si>
-  <si>
     <t>APL Capacity (deliveries per month)</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Number of opened APLs</t>
   </si>
   <si>
-    <t>Mean Reliability</t>
-  </si>
-  <si>
     <t>Minimize Walking Distances</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Objective function coefficient: 0.01</t>
-  </si>
-  <si>
     <t>A lot more APLs, unnecessary if you compare to real DHL APLs</t>
   </si>
   <si>
@@ -189,6 +180,18 @@
   </si>
   <si>
     <t>Not considered</t>
+  </si>
+  <si>
+    <t>1500m air distance</t>
+  </si>
+  <si>
+    <t>Service Reliability</t>
+  </si>
+  <si>
+    <t>Demand Satisfaction Rate</t>
+  </si>
+  <si>
+    <t>Objective function coefficient: 0.001</t>
   </si>
 </sst>
 </file>
@@ -225,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,12 +238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,14 +289,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
@@ -309,14 +312,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -405,9 +400,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FE849FE-0F20-457D-91F8-537ED9744974}" name="Tabelle1" displayName="Tabelle1" ref="A1:Q15" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:Q15" xr:uid="{9FE849FE-0F20-457D-91F8-537ED9744974}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FE849FE-0F20-457D-91F8-537ED9744974}" name="Tabelle1" displayName="Tabelle1" ref="A1:R15" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:R15" xr:uid="{9FE849FE-0F20-457D-91F8-537ED9744974}"/>
+  <tableColumns count="18">
     <tableColumn id="15" xr3:uid="{E897A7E3-BAEB-4C16-A342-C76F6747445C}" name="Test Case" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{666BA25E-2C0C-435E-ABC5-DFFC2868B108}" name="Parameter" dataDxfId="8"/>
     <tableColumn id="14" xr3:uid="{1478F476-F851-4401-8764-2E550B5E4C49}" name="Minimize Walking Distances"/>
@@ -420,13 +415,14 @@
     <tableColumn id="7" xr3:uid="{9ECCA277-8193-41A5-BBFB-6C8B037121D9}" name="Number of opened APLs" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{2F47A723-3488-4352-A173-8AA129D4E7E2}" name="Number of unserviced Customer Cells" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{EA634541-254F-4AAC-BD48-5B0B7478E3F6}" name="Number of underutilized APLs" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{71BA0B31-675C-480E-B687-AFAFE32D091E}" name="Total setup costs" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{1EDC6398-4D87-4FBA-851B-6BAA603FD5A5}" name="Mean Reliability" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{71BA0B31-675C-480E-B687-AFAFE32D091E}" name="Total setup costs" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{1EDC6398-4D87-4FBA-851B-6BAA603FD5A5}" name="Service Reliability" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{EC688221-D3A3-455F-B1A9-DF4AECF868D8}" name="Demand Satisfaction Rate"/>
     <tableColumn id="12" xr3:uid="{A0EA4B7D-3D44-4ADB-966A-6910F1B3B2F4}" name="Avg. daily delivery route " dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{B0E6C52F-0911-4BA8-9DD1-A650904603A4}" name="Combined costs" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{B0E6C52F-0911-4BA8-9DD1-A650904603A4}" name="Combined costs" dataDxfId="1">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E6E3F93D-4CE0-4715-B581-9216A1EDC3AD}" name="Remark" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{E6E3F93D-4CE0-4715-B581-9216A1EDC3AD}" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -729,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C0388D-1D83-4A59-ACFE-6176EA6FCED9}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,60 +749,63 @@
     <col min="14" max="14" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -814,16 +813,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
+      <c r="F2">
+        <v>5500</v>
       </c>
       <c r="G2">
         <v>4000</v>
@@ -835,7 +834,7 @@
         <v>250</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -844,37 +843,40 @@
         <v>5</v>
       </c>
       <c r="M2" s="8">
-        <v>209000</v>
+        <v>214500</v>
       </c>
       <c r="N2">
-        <v>0.82210000000000005</v>
-      </c>
-      <c r="O2" s="12">
-        <v>216376</v>
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.98950000000000005</v>
       </c>
       <c r="P2" s="12">
+        <v>266044</v>
+      </c>
+      <c r="Q2" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>209080.05911999999</v>
+        <v>214598.43627999999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="F3">
+        <v>5500</v>
       </c>
       <c r="G3">
         <v>4000</v>
@@ -886,7 +888,7 @@
         <v>250</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -895,34 +897,37 @@
         <v>14</v>
       </c>
       <c r="M3" s="8">
-        <v>352000</v>
+        <v>357500</v>
       </c>
       <c r="N3">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="O3" s="12">
-        <v>267699</v>
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.99870000000000003</v>
       </c>
       <c r="P3" s="12">
+        <v>275360</v>
+      </c>
+      <c r="Q3" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>352099.04862999998</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>38</v>
+        <v>357601.88319999998</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>5500</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -935,26 +940,29 @@
         <v>10</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M4" s="8">
         <v>330000</v>
       </c>
       <c r="N4">
-        <v>0.99150000000000005</v>
-      </c>
-      <c r="O4" s="12">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.999</v>
+      </c>
+      <c r="P4" s="12">
         <v>250596</v>
       </c>
-      <c r="P4" s="12">
+      <c r="Q4" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
         <v>330092.72051999997</v>
       </c>
-      <c r="Q4" t="s">
-        <v>39</v>
+      <c r="R4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -962,16 +970,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5">
+        <v>5500</v>
       </c>
       <c r="G5">
         <v>4000</v>
@@ -983,7 +991,7 @@
         <v>250</v>
       </c>
       <c r="J5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -992,20 +1000,23 @@
         <v>5</v>
       </c>
       <c r="M5" s="8">
-        <v>198000</v>
+        <v>187000</v>
       </c>
       <c r="N5">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="O5" s="12">
-        <v>211990</v>
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.87719999999999998</v>
       </c>
       <c r="P5" s="12">
+        <v>275360</v>
+      </c>
+      <c r="Q5" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>198078.4363</v>
+        <v>187101.88320000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1013,16 +1024,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="F6">
+        <v>5500</v>
       </c>
       <c r="G6">
         <v>4000</v>
@@ -1034,7 +1045,7 @@
         <v>250</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1043,23 +1054,26 @@
         <v>5</v>
       </c>
       <c r="M6" s="8">
-        <v>192500</v>
+        <v>198000</v>
       </c>
       <c r="N6">
-        <v>0.72670000000000001</v>
-      </c>
-      <c r="O6" s="12">
-        <v>216430</v>
+        <v>0.71319999999999995</v>
+      </c>
+      <c r="O6">
+        <v>0.91039999999999999</v>
       </c>
       <c r="P6" s="12">
+        <v>238079</v>
+      </c>
+      <c r="Q6" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>192580.0791</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>40</v>
+        <v>198088.08923000001</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1067,16 +1081,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
+      <c r="F7">
+        <v>5500</v>
       </c>
       <c r="G7">
         <v>4000</v>
@@ -1088,7 +1102,7 @@
         <v>250</v>
       </c>
       <c r="J7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1097,20 +1111,23 @@
         <v>5</v>
       </c>
       <c r="M7" s="8">
-        <v>203500</v>
+        <v>214500</v>
       </c>
       <c r="N7">
-        <v>0.85840000000000005</v>
-      </c>
-      <c r="O7" s="12">
-        <v>229883</v>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O7">
+        <v>0.99409999999999998</v>
       </c>
       <c r="P7" s="12">
+        <v>233348</v>
+      </c>
+      <c r="Q7" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>203585.05671</v>
+        <v>214586.33876000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1118,16 +1135,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
+      <c r="F8">
+        <v>5500</v>
       </c>
       <c r="G8">
         <v>4000</v>
@@ -1139,32 +1156,35 @@
         <v>250</v>
       </c>
       <c r="J8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" s="8">
-        <v>220000</v>
+        <v>225500</v>
       </c>
       <c r="N8">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="O8" s="12">
-        <v>233790</v>
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.97470000000000001</v>
       </c>
       <c r="P8" s="12">
+        <v>250611</v>
+      </c>
+      <c r="Q8" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>220086.50229999999</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>49</v>
+        <v>225592.72607</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1172,16 +1192,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>5500</v>
       </c>
       <c r="G9">
         <v>4000</v>
@@ -1193,7 +1213,7 @@
         <v>250</v>
       </c>
       <c r="J9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9" s="11">
         <v>2</v>
@@ -1202,23 +1222,26 @@
         <v>1</v>
       </c>
       <c r="M9" s="8">
-        <v>187000</v>
+        <v>192500</v>
       </c>
       <c r="N9">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="O9" s="12">
-        <v>217805</v>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="O9">
+        <v>0.97299999999999998</v>
       </c>
       <c r="P9" s="12">
+        <v>210672</v>
+      </c>
+      <c r="Q9" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>187080.58785000001</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>43</v>
+        <v>192577.94863999999</v>
+      </c>
+      <c r="R9" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1226,16 +1249,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>5500</v>
       </c>
       <c r="G10">
         <v>4000</v>
@@ -1258,21 +1281,24 @@
       <c r="M10" s="8">
         <v>225500</v>
       </c>
-      <c r="N10">
-        <v>0.84309999999999996</v>
-      </c>
-      <c r="O10" s="12">
+      <c r="N10" s="13">
+        <v>0.8851</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="P10" s="12">
         <v>232588</v>
       </c>
-      <c r="P10" s="12">
+      <c r="Q10" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
         <v>225586.05755999999</v>
       </c>
-      <c r="Q10" t="s">
-        <v>45</v>
+      <c r="R10" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1280,28 +1306,28 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
+      <c r="F11" s="3">
+        <v>4125</v>
       </c>
       <c r="G11" s="3">
         <v>3000</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="6">
         <v>250</v>
       </c>
       <c r="J11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1310,23 +1336,27 @@
         <v>3</v>
       </c>
       <c r="M11" s="8">
-        <v>264000</v>
+        <f>Tabelle1[[#This Row],[Setup Costs]]*Tabelle1[[#This Row],[Number of opened APLs]]</f>
+        <v>202125</v>
       </c>
       <c r="N11">
-        <v>0.80259999999999998</v>
-      </c>
-      <c r="O11" s="12">
-        <v>249432</v>
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.90200000000000002</v>
       </c>
       <c r="P11" s="12">
+        <v>263178</v>
+      </c>
+      <c r="Q11" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>264092.28983999998</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>46</v>
+        <v>202222.37586</v>
+      </c>
+      <c r="R11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1334,16 +1364,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
+      <c r="F12" s="3">
+        <v>6875</v>
       </c>
       <c r="G12" s="3">
         <v>5000</v>
@@ -1352,10 +1382,10 @@
         <v>15</v>
       </c>
       <c r="I12" s="6">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="J12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1364,23 +1394,27 @@
         <v>5</v>
       </c>
       <c r="M12" s="8">
-        <v>181500</v>
+        <f>Tabelle1[[#This Row],[Setup Costs]]*Tabelle1[[#This Row],[Number of opened APLs]]</f>
+        <v>233750</v>
       </c>
       <c r="N12">
-        <v>0.90069999999999995</v>
-      </c>
-      <c r="O12" s="12">
-        <v>193034</v>
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="O12">
+        <v>0.92430000000000001</v>
       </c>
       <c r="P12" s="12">
+        <v>206765</v>
+      </c>
+      <c r="Q12" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>181571.42258000001</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>47</v>
+        <v>233826.50305</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1388,16 +1422,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
+      <c r="F13">
+        <v>5500</v>
       </c>
       <c r="G13">
         <v>4000</v>
@@ -1409,7 +1443,7 @@
         <v>200</v>
       </c>
       <c r="J13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -1418,17 +1452,23 @@
         <v>5</v>
       </c>
       <c r="M13" s="8">
-        <v>209000</v>
+        <v>214500</v>
       </c>
       <c r="N13">
-        <v>0.82210000000000005</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="12"/>
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="12" t="e">
+        <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1436,16 +1476,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
-        <v>15</v>
+      <c r="F14">
+        <v>5500</v>
       </c>
       <c r="G14">
         <v>4000</v>
@@ -1457,7 +1497,7 @@
         <v>300</v>
       </c>
       <c r="J14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1466,20 +1506,23 @@
         <v>5</v>
       </c>
       <c r="M14" s="8">
-        <v>209000</v>
+        <v>214500</v>
       </c>
       <c r="N14">
-        <v>0.82210000000000005</v>
-      </c>
-      <c r="O14" s="12">
-        <v>218886</v>
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.98950000000000005</v>
       </c>
       <c r="P14" s="12">
+        <v>203914</v>
+      </c>
+      <c r="Q14" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>209080.98782000001</v>
+        <v>214575.44818000001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1487,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>4000</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -1511,23 +1554,29 @@
         <v>40</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="10">
         <v>220000</v>
       </c>
       <c r="N15" s="9">
-        <v>0.80559999999999998</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="12" t="e">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="P15" s="12">
+        <v>173097</v>
+      </c>
+      <c r="Q15" s="12">
         <f>Tabelle1[[#This Row],[Total setup costs]]+(0.00037*Tabelle1[[#This Row],[Avg. daily delivery route ]])</f>
-        <v>#VALUE!</v>
+        <v>220064.04589000001</v>
+      </c>
+      <c r="R15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
